--- a/output/tables/table03.xlsx
+++ b/output/tables/table03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/jciturra_uc_cl/Documents/papers/rgroups-redist/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC10489661DA46A85ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{187C6951-FF7E-4350-A173-1997697387C7}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC10489661DA46A85ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{365DF89E-0E90-4BD6-9F85-5E8B1DE353D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="231">
   <si>
     <t>Occupation</t>
   </si>
@@ -42,67 +42,37 @@
     <t>Lawyer</t>
   </si>
   <si>
-    <t>45.9</t>
-  </si>
-  <si>
     <t>Executive of large firm</t>
   </si>
   <si>
-    <t>46.8</t>
-  </si>
-  <si>
     <t>Human resource manager</t>
   </si>
   <si>
-    <t>50.6</t>
-  </si>
-  <si>
     <t>Medium-status positions</t>
   </si>
   <si>
     <t>School teacher</t>
   </si>
   <si>
-    <t>73.0</t>
-  </si>
-  <si>
     <t>Police officer</t>
   </si>
   <si>
-    <t>57.0</t>
-  </si>
-  <si>
     <t>Nurse</t>
   </si>
   <si>
-    <t>70.7</t>
-  </si>
-  <si>
     <t>Lower-status positions</t>
   </si>
   <si>
     <t>Car mechanic</t>
   </si>
   <si>
-    <t>58.3</t>
-  </si>
-  <si>
     <t>Bus/lory driver</t>
   </si>
   <si>
-    <t>71.3</t>
-  </si>
-  <si>
     <t>Hairdresser/barber</t>
   </si>
   <si>
-    <t>56.1</t>
-  </si>
-  <si>
     <t>Home or office cleaner</t>
-  </si>
-  <si>
-    <t>66.7</t>
   </si>
   <si>
     <r>
@@ -649,8 +619,139 @@
     <t>Table A3: Values per country for the macro-social variables</t>
   </si>
   <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>ISCO08</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
     <r>
-      <t>Table A2: </t>
+      <t>Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>N = 31,694</t>
+    </r>
+  </si>
+  <si>
+    <t>Table A2 ISEI scores assigned to occupations included in the position generator instrument</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Redistributive preferences</t>
+  </si>
+  <si>
+    <t>Class-based network homogeneity</t>
+  </si>
+  <si>
+    <t>Network size</t>
+  </si>
+  <si>
+    <t>Social class</t>
+  </si>
+  <si>
+    <t>... Service Class (I+II)</t>
+  </si>
+  <si>
+    <t>... Intermediate class (III+IV)</t>
+  </si>
+  <si>
+    <t>... Working Class (V+VI+VII)</t>
+  </si>
+  <si>
+    <t>Household Income</t>
+  </si>
+  <si>
+    <t>... T01</t>
+  </si>
+  <si>
+    <t>... T02</t>
+  </si>
+  <si>
+    <t>... T03</t>
+  </si>
+  <si>
+    <t>... Missing</t>
+  </si>
+  <si>
+    <t>Education in years</t>
+  </si>
+  <si>
+    <t>Labor market status</t>
+  </si>
+  <si>
+    <t>... In paid work</t>
+  </si>
+  <si>
+    <t>... Not in paid work</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>... Male</t>
+  </si>
+  <si>
+    <t>... Female</t>
+  </si>
+  <si>
+    <t>Age in years</t>
+  </si>
+  <si>
+    <t>Has partner</t>
+  </si>
+  <si>
+    <t>... No partner</t>
+  </si>
+  <si>
+    <t>... Has a partner</t>
+  </si>
+  <si>
+    <t>Income Inequality - Gini Index</t>
+  </si>
+  <si>
+    <t>GDP/capita</t>
+  </si>
+  <si>
+    <t>Size of the welfare state</t>
+  </si>
+  <si>
+    <t>Table A4: Descriptive Statistics for Study Variables</t>
+  </si>
+  <si>
+    <r>
+      <t>Table A3: </t>
     </r>
     <r>
       <rPr>
@@ -663,27 +764,12 @@
       <t>Level of aggregation of social class</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t>Table A1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISEI scores assigned to occupations included in the position generator instrument</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,8 +824,54 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,8 +890,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -807,11 +945,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -822,19 +975,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,7 +1023,56 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -900,22 +1093,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE9E4615-59AE-4293-A643-E9897D6A7CF4}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16" xr:uid="{EE9E4615-59AE-4293-A643-E9897D6A7CF4}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3A93F6D0-8FFD-40C5-9BB0-5FAE7D652B2F}" name="Table A1: ISEI scores assigned to occupations included in the position generator instrument"/>
-    <tableColumn id="2" xr3:uid="{12EC65A5-29BF-41CE-B65C-6CDC8C1E6A60}" name="Column1"/>
-    <tableColumn id="3" xr3:uid="{F7132F24-6423-4A6F-B544-52B6C6B6EE7B}" name="Column2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA461244-3961-4272-A2A5-0607621148B3}" name="Table2" displayName="Table2" ref="A18:F26" totalsRowShown="0">
   <autoFilter ref="A18:F26" xr:uid="{AA461244-3961-4272-A2A5-0607621148B3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DA01AADD-BB91-4AE2-BD96-A50F4438280D}" name="Table A2: Level of aggregation of social class"/>
+    <tableColumn id="1" xr3:uid="{DA01AADD-BB91-4AE2-BD96-A50F4438280D}" name="Table A3: Level of aggregation of social class"/>
     <tableColumn id="2" xr3:uid="{A0056CC9-A5F4-4722-AA34-E72C9582E491}" name="Column1"/>
     <tableColumn id="3" xr3:uid="{78B44EAD-3CEE-45DE-A532-A19704FF0333}" name="Column2"/>
     <tableColumn id="4" xr3:uid="{4297E012-B87A-44D8-BB78-EB995EDB171B}" name="Column3"/>
@@ -926,7 +1107,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B023E6F0-8BAA-4A67-BE88-A511C08BE085}" name="Table4" displayName="Table4" ref="A28:F61" totalsRowShown="0">
   <autoFilter ref="A28:F61" xr:uid="{B023E6F0-8BAA-4A67-BE88-A511C08BE085}"/>
   <tableColumns count="6">
@@ -937,7 +1118,7 @@
     <tableColumn id="5" xr3:uid="{EB0331E4-D832-42B3-8B39-8253E5DD3B55}" name="Column4"/>
     <tableColumn id="6" xr3:uid="{D5DFD519-6460-41A0-875B-A8E8FE09D735}" name="Column5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1204,1010 +1385,1479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="23">
+        <v>85</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2611</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="23">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="23">
+        <v>70</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1100</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="23">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="23">
+        <v>68</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1212</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="23">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23">
+        <v>63</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2300</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="23">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="23">
+        <v>54</v>
+      </c>
+      <c r="C9" s="23">
+        <v>5412</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E9" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="23">
+        <v>48</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2220</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="23">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="23">
+        <v>38</v>
+      </c>
+      <c r="C12" s="23">
+        <v>7231</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="23">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="23">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23">
+        <v>8331</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>85</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <v>68</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6">
-        <v>63</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <v>54</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="E13" s="23">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B14" s="23">
+        <v>32</v>
+      </c>
+      <c r="C14" s="23">
+        <v>5140</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="23">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>48</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="B15" s="23">
         <v>17</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8">
-        <v>36</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="6">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
+      <c r="C15" s="23">
+        <v>9111</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="23">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4.8319999999999999</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5">
+        <v>13.365</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8.5329999999999995</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5.89</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8.0410000000000004</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="8">
-        <v>4.8319999999999999</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B23" s="4">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="8">
-        <v>13.365</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="B24" s="5">
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6">
-        <v>8.5329999999999995</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="E24" s="5">
+        <v>10.288</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="6">
-        <v>13.365</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8">
-        <v>5.89</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B25" s="4">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="8">
-        <v>8.0410000000000004</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="B29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="6">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="E29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="6">
-        <v>8.0410000000000004</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="F29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="8">
-        <v>8.7989999999999995</v>
-      </c>
-      <c r="C24" s="8" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="B30" s="14">
+        <v>859</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="8">
-        <v>10.288</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D30" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="E30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="6">
-        <v>1.4890000000000001</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="F30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="6">
-        <v>10.288</v>
-      </c>
-      <c r="F25" s="6" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="17">
+        <v>996</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="14">
+        <v>940</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="E32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="17">
+        <v>768</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1.018</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="14">
+        <v>960</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="17">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="14">
+        <v>722</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1.012</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="14">
+        <v>676</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="14">
+        <v>827</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="17">
+        <v>519</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="14">
+        <v>903</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="17">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="14">
+        <v>814</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="17">
+        <v>827</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="14">
+        <v>840</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1.149</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="14">
+        <v>1.381</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="17">
+        <v>902</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="14">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="17">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="14">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="17">
+        <v>1.083</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="14">
+        <v>1.61</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="17">
+        <v>721</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="14">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="17">
+        <v>844</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="14">
+        <v>515</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="D69" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C70" s="32">
+        <v>69</v>
+      </c>
+      <c r="D70" s="32">
+        <v>24</v>
+      </c>
+      <c r="E70" s="32">
+        <v>0</v>
+      </c>
+      <c r="F70" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C71" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="D71" s="32">
+        <v>0.23</v>
+      </c>
+      <c r="E71" s="32">
+        <v>0</v>
+      </c>
+      <c r="F71" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C72" s="32">
+        <v>5.8</v>
+      </c>
+      <c r="D72" s="32">
+        <v>2.6</v>
+      </c>
+      <c r="E72" s="32">
+        <v>1</v>
+      </c>
+      <c r="F72" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="33">
+        <v>0.32</v>
+      </c>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33">
+        <v>0.23</v>
+      </c>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C82" s="32">
+        <v>13</v>
+      </c>
+      <c r="D82" s="32">
+        <v>4.3</v>
+      </c>
+      <c r="E82" s="32">
+        <v>0</v>
+      </c>
+      <c r="F82" s="32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="33">
+        <v>0.66</v>
+      </c>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="33">
+        <v>0.34</v>
+      </c>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="33">
+        <v>0.49</v>
+      </c>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="33">
+        <v>0.51</v>
+      </c>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C89" s="32">
         <v>49</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="D89" s="32">
+        <v>16</v>
+      </c>
+      <c r="E89" s="32">
+        <v>15</v>
+      </c>
+      <c r="F89" s="32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="32"/>
+      <c r="C91" s="33">
+        <v>0.43</v>
+      </c>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="32"/>
+      <c r="C92" s="33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C93" s="32">
+        <v>0.41</v>
+      </c>
+      <c r="D93" s="32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E93" s="32">
+        <v>0.19</v>
+      </c>
+      <c r="F93" s="32">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C94" s="32">
+        <v>37</v>
+      </c>
+      <c r="D94" s="32">
+        <v>16</v>
+      </c>
+      <c r="E94" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="F94" s="32">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="32">
+        <v>31694</v>
+      </c>
+      <c r="C95" s="32">
         <v>53</v>
       </c>
-      <c r="B30" s="17">
-        <v>859</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="20">
-        <v>996</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="17">
-        <v>940</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="20">
-        <v>768</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="17">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="20">
-        <v>1.018</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="17">
-        <v>960</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="20">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="17">
-        <v>722</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="20">
-        <v>1.012</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="D95" s="32">
+        <v>27</v>
+      </c>
+      <c r="E95" s="32">
+        <v>0</v>
+      </c>
+      <c r="F95" s="32">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="17">
-        <v>676</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="20">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="17">
-        <v>827</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="20">
-        <v>519</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="17">
-        <v>903</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="20">
-        <v>1.3380000000000001</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="17">
-        <v>814</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="20">
-        <v>827</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="17">
-        <v>840</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="20">
-        <v>1.149</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="17">
-        <v>1.381</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="20">
-        <v>902</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B52" s="17">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="20">
-        <v>2.3849999999999998</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B54" s="17">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" s="20">
-        <v>1.083</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="17">
-        <v>1.61</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="20">
-        <v>721</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" s="17">
-        <v>1.4259999999999999</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" s="20">
-        <v>844</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" s="17">
-        <v>515</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
